--- a/Oyster/Spat/data/development/entry/2018_sept_nov/shell_spat_bag_entry_oct.xlsx
+++ b/Oyster/Spat/data/development/entry/2018_sept_nov/shell_spat_bag_entry_oct.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevenbeck\Desktop\Reef_Project\Git\Beck_LC_R\oyster\spat\data\development\entry\2018_sept\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/billpine/Downloads/SPAT/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{182A1177-368F-8742-9477-40F012EBF38B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24495" windowHeight="9030"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24500" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shell_spat_bag_entry" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
   <si>
     <t>station</t>
   </si>
@@ -100,9 +101,6 @@
     <t>WQ1</t>
   </si>
   <si>
-    <t>SB</t>
-  </si>
-  <si>
     <t>WQ2</t>
   </si>
   <si>
@@ -130,13 +128,25 @@
     <t>snail_cnt</t>
   </si>
   <si>
+    <t>RETR</t>
+  </si>
+  <si>
+    <t>LOST</t>
+  </si>
+  <si>
     <t>OCTOBER</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -937,19 +947,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -978,21 +989,24 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="1">
         <v>43377</v>
       </c>
+      <c r="C2" s="1">
+        <v>43404</v>
+      </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2">
         <v>2018</v>
@@ -1003,19 +1017,31 @@
       <c r="G2">
         <v>380</v>
       </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
       <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>27</v>
       </c>
       <c r="B3" s="1">
         <v>43377</v>
       </c>
+      <c r="C3" s="1">
+        <v>43404</v>
+      </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>2018</v>
@@ -1026,19 +1052,31 @@
       <c r="G3">
         <v>323</v>
       </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
       <c r="I3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="J3">
+        <v>55</v>
+      </c>
+      <c r="K3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>43377</v>
       </c>
+      <c r="C4" s="1">
+        <v>43404</v>
+      </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>2018</v>
@@ -1049,19 +1087,31 @@
       <c r="G4">
         <v>339</v>
       </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
       <c r="I4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="J4">
+        <v>58</v>
+      </c>
+      <c r="K4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1">
         <v>43377</v>
       </c>
+      <c r="C5" s="1">
+        <v>43404</v>
+      </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>2018</v>
@@ -1072,19 +1122,31 @@
       <c r="G5">
         <v>391</v>
       </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
       <c r="I5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1">
         <v>43377</v>
       </c>
+      <c r="C6" s="1">
+        <v>43404</v>
+      </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>2018</v>
@@ -1095,19 +1157,31 @@
       <c r="G6">
         <v>334</v>
       </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
       <c r="I6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1">
         <v>43377</v>
       </c>
+      <c r="C7" s="1">
+        <v>43404</v>
+      </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>2018</v>
@@ -1118,19 +1192,31 @@
       <c r="G7">
         <v>334</v>
       </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1">
         <v>43377</v>
       </c>
+      <c r="C8" s="1">
+        <v>43404</v>
+      </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8">
         <v>2018</v>
@@ -1141,19 +1227,31 @@
       <c r="G8">
         <v>384</v>
       </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1">
         <v>43377</v>
       </c>
+      <c r="C9" s="1">
+        <v>43404</v>
+      </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9">
         <v>2018</v>
@@ -1164,19 +1262,31 @@
       <c r="G9">
         <v>305</v>
       </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
       <c r="I9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1">
         <v>43377</v>
       </c>
+      <c r="C10" s="1">
+        <v>43404</v>
+      </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>2018</v>
@@ -1187,22 +1297,31 @@
       <c r="G10">
         <v>363</v>
       </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="J10">
+        <v>98</v>
+      </c>
+      <c r="K10">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A50" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"WQ1,WQ2,WQ3,WQ4,WQ5,WQ6,WQ7,WQ8,WQ9"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D50" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"JANUARY,FEBRUARY,MARCH,APRIL,MAY,JUNE,JULY,AUGUST,SEPTEMBER,OCTOBER,NOVEMBER,DECEMBER,N_A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E50" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"2018,2019,2020,2021,2022,2023,2024,2025,2026,2027,2028,2029,-999"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H50" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"RETR,LOST,DLYD,RMVD,N_A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1211,16 +1330,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -1231,7 +1350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +1361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1253,7 +1372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1264,7 +1383,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1272,7 +1391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1280,7 +1399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1291,7 +1410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1302,7 +1421,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1313,7 +1432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1324,7 +1443,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1335,7 +1454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
